--- a/all_phenotype_data_cleaned.xlsx
+++ b/all_phenotype_data_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au520932_uni_au_dk/Documents/Desktop/Grant applications/GrantedProjects/SelRas/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{89B51D9C-E8A6-47BD-A610-56DEDC866997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CBF4823-5662-437D-9859-4BBCF8241CCA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{89B51D9C-E8A6-47BD-A610-56DEDC866997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BBA722E-3BD1-4435-ADF5-3C9E37DD23E6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="1005">
   <si>
     <t>UID</t>
   </si>
@@ -3533,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
-      <selection activeCell="A674" sqref="A674:XFD674"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A466" sqref="A466:P466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21456,8 +21456,8 @@
       <c r="M466" s="6">
         <v>24</v>
       </c>
-      <c r="N466" s="6">
-        <v>564</v>
+      <c r="N466" s="6" t="s">
+        <v>1004</v>
       </c>
       <c r="O466" s="6" t="s">
         <v>460</v>
